--- a/scripts_Bi_Cu_V_O/data/solutions of Gomes.xlsx
+++ b/scripts_Bi_Cu_V_O/data/solutions of Gomes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\phasemapy\scripts_Bi_Cu_V_O\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9F08E2-472A-44EB-9EBA-DC0701BCCF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B7BEF6-92C2-4BB1-B3DB-6DE1967C92E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0E603DB5-B896-4539-BE38-9DFEA7DE66DC}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>// Phase concentrations at each sample</t>
   </si>
@@ -1011,6 +1010,51 @@
   <si>
     <t>Phase13</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Number of phases</t>
+  </si>
+  <si>
+    <t>K=13</t>
+  </si>
+  <si>
+    <t>BName1=5+Bi12V2O23_00-044-0174_Monoclinic,9+Bi23V4O44.5_00-047-0733_Triclinic(Anorthic)</t>
+  </si>
+  <si>
+    <t>BName2=28+Bi4.1Cu0.2V1.7O10.6_00-048-0273_Tetragonal,23+Bi2VO5.5_00-051-0032_Tetragonal,24+Bi2VO5.5_01-088-0870_Orthorhombic,27+Bi4(V2O11.2)_01-074-7536_Tetragonal,75+V2Bi4O11_04-011-3627_Monoclinic,76+V2Bi4O11_04-016-4174_Monoclinic,94+VBi2O5.5_04-007-5482_Orthorhombic</t>
+  </si>
+  <si>
+    <t>BName3=35+Bi8V2O17_00-044-0171_Orthorhombic</t>
+  </si>
+  <si>
+    <t>BName4=38+BiV1.025O4+x_00-044-0081_Monoclinic,0+Bi(VO4)_04-010-5710_Tetragonal,1+Bi(VO4)_04-010-5713_Monoclinic,26+Bi3V4.2O15.5_00-058-0430_Monoclinic</t>
+  </si>
+  <si>
+    <t>BName5=46+Cu11(VO4)6O2_04-012-8670_Triclinic(Anorthic)</t>
+  </si>
+  <si>
+    <t>BName6=47+Cu2(V2O7)_01-078-2581_Triclinic(Anorthic)</t>
+  </si>
+  <si>
+    <t>BName7=54+Cu2VBiO6_04-012-3857_Monoclinic</t>
+  </si>
+  <si>
+    <t>BName8=55+Cu3(VO4)2_04-010-1734_Triclinic(Anorthic)</t>
+  </si>
+  <si>
+    <t>BName9=58+Cu3V2Bi4O14_04-011-5345_Triclinic(Anorthic)</t>
+  </si>
+  <si>
+    <t>BName10=60+Cu5V2O10_04-011-1618_Monoclinic</t>
+  </si>
+  <si>
+    <t>BName11=62+CuBi2O4_00-042-0334_Tetragonal</t>
+  </si>
+  <si>
+    <t>BName12=63+CuO_00-041-0254_Monoclinic</t>
+  </si>
+  <si>
+    <t>BName13=68+CuV2O6_04-008-9659_Triclinic(Anorthic),67+CuV2O6_00-045-1054_Triclinic(Anorthic)</t>
   </si>
 </sst>
 </file>
@@ -1034,12 +1078,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1056,8 +1106,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,59 +1427,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1A16D-F3BF-4D18-9F79-898E9770DAEE}">
-  <dimension ref="A1:N308"/>
+  <dimension ref="A1:P308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1469,8 +1523,11 @@
       <c r="N2">
         <v>3.0554000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1513,8 +1570,11 @@
       <c r="N3">
         <v>4.2064999999999998E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1557,8 +1617,11 @@
       <c r="N4">
         <v>0.14452100000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1601,8 +1664,11 @@
       <c r="N5">
         <v>0.14479800000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1645,8 +1711,11 @@
       <c r="N6">
         <v>0.14977099999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1689,8 +1758,11 @@
       <c r="N7">
         <v>0.11254699999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1733,8 +1805,11 @@
       <c r="N8">
         <v>0.11033999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1777,8 +1852,11 @@
       <c r="N9">
         <v>3.0825999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1821,8 +1899,11 @@
       <c r="N10">
         <v>4.9918999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1865,8 +1946,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1909,8 +1993,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1953,8 +2040,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1997,8 +2087,11 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2041,8 +2134,11 @@
       <c r="N15">
         <v>2.8665E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2084,6 +2180,9 @@
       </c>
       <c r="N16">
         <v>2.2418E-2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
